--- a/data/pca/factorExposure/factorExposure_2015-02-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01886582655431085</v>
+        <v>0.01123021105275531</v>
       </c>
       <c r="C2">
-        <v>-0.03421320934990515</v>
+        <v>0.05237162720123487</v>
       </c>
       <c r="D2">
-        <v>0.1255706947087681</v>
+        <v>0.09615186239211983</v>
       </c>
       <c r="E2">
-        <v>0.07268886285599309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.07211195700211596</v>
+      </c>
+      <c r="F2">
+        <v>-0.03466116455891111</v>
+      </c>
+      <c r="G2">
+        <v>-0.1356666483167932</v>
+      </c>
+      <c r="H2">
+        <v>0.06747777778156977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04572200239180717</v>
+        <v>0.0204859124150979</v>
       </c>
       <c r="C4">
-        <v>-0.07859271124760954</v>
+        <v>0.114527609497807</v>
       </c>
       <c r="D4">
-        <v>0.08775596206050662</v>
+        <v>0.09703183717424869</v>
       </c>
       <c r="E4">
-        <v>0.1265665127362073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.07755521850266245</v>
+      </c>
+      <c r="F4">
+        <v>-0.09176897129873356</v>
+      </c>
+      <c r="G4">
+        <v>-0.02486764455251577</v>
+      </c>
+      <c r="H4">
+        <v>-0.06722113220560856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02918734917458733</v>
+        <v>0.03343095238830059</v>
       </c>
       <c r="C6">
-        <v>-0.02068875974756744</v>
+        <v>0.03943325880270693</v>
       </c>
       <c r="D6">
-        <v>0.09730659282891896</v>
+        <v>0.07955249580739851</v>
       </c>
       <c r="E6">
-        <v>0.08453486754248833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1016030320007965</v>
+      </c>
+      <c r="F6">
+        <v>-0.03856254160514322</v>
+      </c>
+      <c r="G6">
+        <v>0.002632937339853857</v>
+      </c>
+      <c r="H6">
+        <v>0.01292213317114599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003488819425732803</v>
+        <v>0.006288820829118576</v>
       </c>
       <c r="C7">
-        <v>-0.0269408164277775</v>
+        <v>0.04214353923995612</v>
       </c>
       <c r="D7">
-        <v>0.08917996524622927</v>
+        <v>0.07120243487514334</v>
       </c>
       <c r="E7">
-        <v>0.05128274271944096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.09276676916996834</v>
+      </c>
+      <c r="F7">
+        <v>-0.01226960867636485</v>
+      </c>
+      <c r="G7">
+        <v>0.008180745432950913</v>
+      </c>
+      <c r="H7">
+        <v>-0.02661812953665836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0007285404495436158</v>
+        <v>-0.004836127522345819</v>
       </c>
       <c r="C8">
-        <v>-0.02896737791295355</v>
+        <v>0.03746843730918205</v>
       </c>
       <c r="D8">
-        <v>0.06756262721612112</v>
+        <v>0.0483469346619736</v>
       </c>
       <c r="E8">
-        <v>0.0694145587265473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.06122603041801399</v>
+      </c>
+      <c r="F8">
+        <v>-0.05085181088443646</v>
+      </c>
+      <c r="G8">
+        <v>-0.0753324295741892</v>
+      </c>
+      <c r="H8">
+        <v>-0.03420857828193447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03408395175137021</v>
+        <v>0.01418273471757412</v>
       </c>
       <c r="C9">
-        <v>-0.06875464420099109</v>
+        <v>0.09391580230073247</v>
       </c>
       <c r="D9">
-        <v>0.09303292887846611</v>
+        <v>0.0839492299245881</v>
       </c>
       <c r="E9">
-        <v>0.106197300442917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.06873312034612297</v>
+      </c>
+      <c r="F9">
+        <v>-0.0618438980103287</v>
+      </c>
+      <c r="G9">
+        <v>-0.006652645381966671</v>
+      </c>
+      <c r="H9">
+        <v>-0.02185135550051122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1974781678770959</v>
+        <v>0.2450345056578505</v>
       </c>
       <c r="C10">
-        <v>0.1577982358584863</v>
+        <v>-0.09224180188637918</v>
       </c>
       <c r="D10">
-        <v>-0.0443861825549964</v>
+        <v>-0.009219583972020043</v>
       </c>
       <c r="E10">
-        <v>0.02076235678224378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02403912166731493</v>
+      </c>
+      <c r="F10">
+        <v>-0.04105238744694575</v>
+      </c>
+      <c r="G10">
+        <v>0.0145853134670541</v>
+      </c>
+      <c r="H10">
+        <v>-0.005204912694159117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01234764981089116</v>
+        <v>0.009831291736380136</v>
       </c>
       <c r="C11">
-        <v>-0.04304589422418677</v>
+        <v>0.06144837746887057</v>
       </c>
       <c r="D11">
-        <v>0.04013843204300654</v>
+        <v>0.02927139105841952</v>
       </c>
       <c r="E11">
-        <v>-0.004347873156933755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0441539850177406</v>
+      </c>
+      <c r="F11">
+        <v>0.009852072635153392</v>
+      </c>
+      <c r="G11">
+        <v>-0.001220039385816779</v>
+      </c>
+      <c r="H11">
+        <v>-0.0190789936984104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.010747047483997</v>
+        <v>0.009986725275283112</v>
       </c>
       <c r="C12">
-        <v>-0.04258003538252657</v>
+        <v>0.05164329930908954</v>
       </c>
       <c r="D12">
-        <v>0.05493413839680019</v>
+        <v>0.03927056364498972</v>
       </c>
       <c r="E12">
-        <v>0.01779025080927637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03921227296427987</v>
+      </c>
+      <c r="F12">
+        <v>0.01035537399383795</v>
+      </c>
+      <c r="G12">
+        <v>0.01007236161677384</v>
+      </c>
+      <c r="H12">
+        <v>0.01822184674560499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0102002609523253</v>
+        <v>0.004761382768061712</v>
       </c>
       <c r="C13">
-        <v>-0.02984950756324341</v>
+        <v>0.06089826610381958</v>
       </c>
       <c r="D13">
-        <v>0.1138436738207156</v>
+        <v>0.1309928509859052</v>
       </c>
       <c r="E13">
-        <v>0.09127568948852688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.09820419566427196</v>
+      </c>
+      <c r="F13">
+        <v>-0.03699368624582618</v>
+      </c>
+      <c r="G13">
+        <v>-0.04773540564607842</v>
+      </c>
+      <c r="H13">
+        <v>0.07429935543783137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01357753047862731</v>
+        <v>0.001414109760138849</v>
       </c>
       <c r="C14">
-        <v>-0.01878432409060891</v>
+        <v>0.03283738980147888</v>
       </c>
       <c r="D14">
-        <v>0.06499666549176263</v>
+        <v>0.0691047275863763</v>
       </c>
       <c r="E14">
-        <v>0.04691804461520149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.1072924414008227</v>
+      </c>
+      <c r="F14">
+        <v>-0.03755539851992949</v>
+      </c>
+      <c r="G14">
+        <v>-0.01926100640517875</v>
+      </c>
+      <c r="H14">
+        <v>0.0369641322108575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003154024685125587</v>
+        <v>-0.004045600968907315</v>
       </c>
       <c r="C15">
-        <v>-0.01269294965326618</v>
+        <v>0.03062301394374182</v>
       </c>
       <c r="D15">
-        <v>0.04689379464545512</v>
+        <v>0.05367484116079284</v>
       </c>
       <c r="E15">
-        <v>0.0216031451603311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.05017951888153208</v>
+      </c>
+      <c r="F15">
+        <v>-0.01047133143522775</v>
+      </c>
+      <c r="G15">
+        <v>-0.02715158404923844</v>
+      </c>
+      <c r="H15">
+        <v>-0.009610509979375893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01163749082621659</v>
+        <v>0.009023525155512449</v>
       </c>
       <c r="C16">
-        <v>-0.04023422881200538</v>
+        <v>0.05332532935164103</v>
       </c>
       <c r="D16">
-        <v>0.04314651936827873</v>
+        <v>0.03301721358514653</v>
       </c>
       <c r="E16">
-        <v>0.008651486917172581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.04207837742482145</v>
+      </c>
+      <c r="F16">
+        <v>0.006635928426669299</v>
+      </c>
+      <c r="G16">
+        <v>0.0132949753356201</v>
+      </c>
+      <c r="H16">
+        <v>-0.007970323462213894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003128540217627161</v>
+        <v>-0.003749446308526452</v>
       </c>
       <c r="C19">
-        <v>-0.02204761338965145</v>
+        <v>0.01616681512748979</v>
       </c>
       <c r="D19">
-        <v>0.05703110093116685</v>
+        <v>0.03212779161918036</v>
       </c>
       <c r="E19">
-        <v>0.04302746272284938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.009542746696723507</v>
+      </c>
+      <c r="F19">
+        <v>-0.009108738021007132</v>
+      </c>
+      <c r="G19">
+        <v>-0.0195736595567044</v>
+      </c>
+      <c r="H19">
+        <v>0.0168120456623677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0003117495682622855</v>
+        <v>0.004706765427696383</v>
       </c>
       <c r="C20">
-        <v>-0.0287271750459404</v>
+        <v>0.04583420087473025</v>
       </c>
       <c r="D20">
-        <v>0.05959726353148493</v>
+        <v>0.06553735170619165</v>
       </c>
       <c r="E20">
-        <v>0.06139304835438205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06063727591210333</v>
+      </c>
+      <c r="F20">
+        <v>-0.02260208931571544</v>
+      </c>
+      <c r="G20">
+        <v>0.01108211762384437</v>
+      </c>
+      <c r="H20">
+        <v>-0.03017692929804051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001619161773504859</v>
+        <v>0.001350610260939017</v>
       </c>
       <c r="C21">
-        <v>-0.03414182368563509</v>
+        <v>0.0467370187223982</v>
       </c>
       <c r="D21">
-        <v>0.09736758348615017</v>
+        <v>0.09656555180162239</v>
       </c>
       <c r="E21">
-        <v>0.1382993587978773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.08280358757583722</v>
+      </c>
+      <c r="F21">
+        <v>-0.09750182019229815</v>
+      </c>
+      <c r="G21">
+        <v>-0.06225805295567436</v>
+      </c>
+      <c r="H21">
+        <v>0.09430745358823259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003477795415598854</v>
+        <v>-0.007595502029375058</v>
       </c>
       <c r="C22">
-        <v>-0.05487180835188429</v>
+        <v>0.08437688090308752</v>
       </c>
       <c r="D22">
-        <v>0.1974616542785918</v>
+        <v>0.2018971496998657</v>
       </c>
       <c r="E22">
-        <v>0.122217640665398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.1002142250049878</v>
+      </c>
+      <c r="F22">
+        <v>-0.04538489926200424</v>
+      </c>
+      <c r="G22">
+        <v>-0.2453896841146261</v>
+      </c>
+      <c r="H22">
+        <v>-0.1083912593300568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.003909865459583556</v>
+        <v>-0.004481098467964812</v>
       </c>
       <c r="C23">
-        <v>-0.05525663107864549</v>
+        <v>0.08650648631953274</v>
       </c>
       <c r="D23">
-        <v>0.1963259620025061</v>
+        <v>0.2053057635041805</v>
       </c>
       <c r="E23">
-        <v>0.1221078401524974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0975822707377902</v>
+      </c>
+      <c r="F23">
+        <v>-0.04815616049609819</v>
+      </c>
+      <c r="G23">
+        <v>-0.2387777075904021</v>
+      </c>
+      <c r="H23">
+        <v>-0.102254308686007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.01760794004009915</v>
+        <v>0.01040498332350591</v>
       </c>
       <c r="C24">
-        <v>-0.06123656439048099</v>
+        <v>0.07113551814314235</v>
       </c>
       <c r="D24">
-        <v>0.0587321024499427</v>
+        <v>0.03278591765430022</v>
       </c>
       <c r="E24">
-        <v>0.01749341173591805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05473530012114664</v>
+      </c>
+      <c r="F24">
+        <v>0.004377783825164762</v>
+      </c>
+      <c r="G24">
+        <v>-0.007387027873436573</v>
+      </c>
+      <c r="H24">
+        <v>-0.00915345664229608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.01696561056576537</v>
+        <v>0.01441019708802378</v>
       </c>
       <c r="C25">
-        <v>-0.0529441628153771</v>
+        <v>0.06517457880328772</v>
       </c>
       <c r="D25">
-        <v>0.04465067173571588</v>
+        <v>0.0354054965361288</v>
       </c>
       <c r="E25">
-        <v>0.01657995680063223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03759642112671902</v>
+      </c>
+      <c r="F25">
+        <v>0.002339825207052654</v>
+      </c>
+      <c r="G25">
+        <v>0.007111449137959739</v>
+      </c>
+      <c r="H25">
+        <v>-0.007912107964922081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.005466498629074472</v>
+        <v>0.01687242589048625</v>
       </c>
       <c r="C26">
-        <v>-0.01953803702641274</v>
+        <v>0.03292470090117787</v>
       </c>
       <c r="D26">
-        <v>0.0525124663203145</v>
+        <v>0.04014938579293758</v>
       </c>
       <c r="E26">
-        <v>0.04598093005625319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.07326986427260404</v>
+      </c>
+      <c r="F26">
+        <v>-0.04798416970816148</v>
+      </c>
+      <c r="G26">
+        <v>-0.02624991153493197</v>
+      </c>
+      <c r="H26">
+        <v>0.005901032383265049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2787009286589326</v>
+        <v>0.3139555092208922</v>
       </c>
       <c r="C28">
-        <v>0.1690389062800319</v>
+        <v>-0.08857976357134843</v>
       </c>
       <c r="D28">
-        <v>-0.01374851839599758</v>
+        <v>-0.00962096594383059</v>
       </c>
       <c r="E28">
-        <v>0.02729595213457713</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05452814860331953</v>
+      </c>
+      <c r="F28">
+        <v>-0.04503289322402098</v>
+      </c>
+      <c r="G28">
+        <v>-0.05738714825633173</v>
+      </c>
+      <c r="H28">
+        <v>-0.0241610177972611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005062780303795695</v>
+        <v>0.0008576350473819067</v>
       </c>
       <c r="C29">
-        <v>-0.02256624546536974</v>
+        <v>0.03967290918006171</v>
       </c>
       <c r="D29">
-        <v>0.06557558147818034</v>
+        <v>0.07600830021415345</v>
       </c>
       <c r="E29">
-        <v>0.0564018012930248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1174939355615072</v>
+      </c>
+      <c r="F29">
+        <v>-0.03968022678157532</v>
+      </c>
+      <c r="G29">
+        <v>-0.00976270814684501</v>
+      </c>
+      <c r="H29">
+        <v>0.04621921561746169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0272535389591644</v>
+        <v>0.01741526939893835</v>
       </c>
       <c r="C30">
-        <v>-0.07497105641214388</v>
+        <v>0.09978887244329875</v>
       </c>
       <c r="D30">
-        <v>0.1380657808772137</v>
+        <v>0.09885783016384572</v>
       </c>
       <c r="E30">
-        <v>0.08310269765798131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1065065615890583</v>
+      </c>
+      <c r="F30">
+        <v>-0.01638329175830426</v>
+      </c>
+      <c r="G30">
+        <v>-0.02564984592077584</v>
+      </c>
+      <c r="H30">
+        <v>-0.04201525340420098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03212675167999756</v>
+        <v>0.01028664901634477</v>
       </c>
       <c r="C31">
-        <v>-0.08472951500354982</v>
+        <v>0.09543664023363253</v>
       </c>
       <c r="D31">
-        <v>0.04787763124449002</v>
+        <v>0.02498725761317919</v>
       </c>
       <c r="E31">
-        <v>0.03065566349806068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.03059803013368109</v>
+      </c>
+      <c r="F31">
+        <v>-0.01923481453069612</v>
+      </c>
+      <c r="G31">
+        <v>-0.02116273776412777</v>
+      </c>
+      <c r="H31">
+        <v>-0.003509255250914357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0151396067242491</v>
+        <v>0.01285693310580735</v>
       </c>
       <c r="C32">
-        <v>-0.04243360091947376</v>
+        <v>0.05201174059300866</v>
       </c>
       <c r="D32">
-        <v>0.08059224628549101</v>
+        <v>0.07874839372854701</v>
       </c>
       <c r="E32">
-        <v>0.08868984282744631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02676360583089143</v>
+      </c>
+      <c r="F32">
+        <v>-0.04981943516196396</v>
+      </c>
+      <c r="G32">
+        <v>-0.02862031401025264</v>
+      </c>
+      <c r="H32">
+        <v>0.03044523869479053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.005000459619812552</v>
+        <v>0.006942642168865811</v>
       </c>
       <c r="C33">
-        <v>-0.04248454580739031</v>
+        <v>0.06530259488428357</v>
       </c>
       <c r="D33">
-        <v>0.09303661839369727</v>
+        <v>0.09013913209938162</v>
       </c>
       <c r="E33">
-        <v>0.07707851947919651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0847086182479925</v>
+      </c>
+      <c r="F33">
+        <v>-0.03234217778552224</v>
+      </c>
+      <c r="G33">
+        <v>-0.012237460345536</v>
+      </c>
+      <c r="H33">
+        <v>0.0007473185044393172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01429653867670143</v>
+        <v>0.008805954769237076</v>
       </c>
       <c r="C34">
-        <v>-0.06130322057084595</v>
+        <v>0.06277921560915327</v>
       </c>
       <c r="D34">
-        <v>0.05396531391272532</v>
+        <v>0.01477918755199912</v>
       </c>
       <c r="E34">
-        <v>-0.03011995263743442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03763875582318264</v>
+      </c>
+      <c r="F34">
+        <v>0.03800512132337083</v>
+      </c>
+      <c r="G34">
+        <v>-0.006075904025923709</v>
+      </c>
+      <c r="H34">
+        <v>0.00263376896752975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0002170395813753868</v>
+        <v>0.004310081896464921</v>
       </c>
       <c r="C35">
-        <v>-0.0009203318278283525</v>
+        <v>0.01590617752692612</v>
       </c>
       <c r="D35">
-        <v>0.0009016784685748357</v>
+        <v>0.02912670178214378</v>
       </c>
       <c r="E35">
-        <v>-0.0003006851672209871</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.03088386810029668</v>
+      </c>
+      <c r="F35">
+        <v>-0.02256971977020304</v>
+      </c>
+      <c r="G35">
+        <v>-0.001230444052772391</v>
+      </c>
+      <c r="H35">
+        <v>0.008019508214434343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006141108142727504</v>
+        <v>0.011259636160908</v>
       </c>
       <c r="C36">
-        <v>-0.01038790988588909</v>
+        <v>0.02504568514473987</v>
       </c>
       <c r="D36">
-        <v>0.05282015171217671</v>
+        <v>0.05227373030536411</v>
       </c>
       <c r="E36">
-        <v>0.06936227226590566</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06577032647078136</v>
+      </c>
+      <c r="F36">
+        <v>-0.05025139932743335</v>
+      </c>
+      <c r="G36">
+        <v>-0.0131807477922532</v>
+      </c>
+      <c r="H36">
+        <v>0.004007186454578015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001331735711831399</v>
+        <v>0.007691465990031403</v>
       </c>
       <c r="C38">
-        <v>-0.0100576790133672</v>
+        <v>0.03000491557077035</v>
       </c>
       <c r="D38">
-        <v>0.08339991457198964</v>
+        <v>0.07760201134743454</v>
       </c>
       <c r="E38">
-        <v>0.04735997703577895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.06150150245019779</v>
+      </c>
+      <c r="F38">
+        <v>-0.01067325036947349</v>
+      </c>
+      <c r="G38">
+        <v>-0.03472313374638186</v>
+      </c>
+      <c r="H38">
+        <v>-0.03838366964582907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01198209779091477</v>
+        <v>0.006293644222525816</v>
       </c>
       <c r="C39">
-        <v>-0.06330626941359975</v>
+        <v>0.08911379941500745</v>
       </c>
       <c r="D39">
-        <v>0.09985768080229218</v>
+        <v>0.06647832087543917</v>
       </c>
       <c r="E39">
-        <v>0.03816264621771406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.09861907599075707</v>
+      </c>
+      <c r="F39">
+        <v>0.004517392646096036</v>
+      </c>
+      <c r="G39">
+        <v>-0.007934332825131339</v>
+      </c>
+      <c r="H39">
+        <v>-0.00367533567736184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01528372726374511</v>
+        <v>0.01319102526913279</v>
       </c>
       <c r="C40">
-        <v>-0.0278318959626787</v>
+        <v>0.04241030298710699</v>
       </c>
       <c r="D40">
-        <v>0.1079947603331139</v>
+        <v>0.06998337105688378</v>
       </c>
       <c r="E40">
-        <v>0.03490882353613681</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07569031808486515</v>
+      </c>
+      <c r="F40">
+        <v>0.02499131152655432</v>
+      </c>
+      <c r="G40">
+        <v>-0.07869964274095452</v>
+      </c>
+      <c r="H40">
+        <v>0.02021696512278046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.007789936934748682</v>
+        <v>0.01703860743609202</v>
       </c>
       <c r="C41">
-        <v>-0.007007108007865141</v>
+        <v>0.02490506033475649</v>
       </c>
       <c r="D41">
-        <v>0.0233518609849698</v>
+        <v>0.03586896899201478</v>
       </c>
       <c r="E41">
-        <v>0.02914396073389846</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02273794550225238</v>
+      </c>
+      <c r="F41">
+        <v>-0.01952083316848712</v>
+      </c>
+      <c r="G41">
+        <v>-0.006284765342684194</v>
+      </c>
+      <c r="H41">
+        <v>-0.004792738663637975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004368214256563764</v>
+        <v>0.008347912689870944</v>
       </c>
       <c r="C43">
-        <v>-0.00247711147136983</v>
+        <v>0.01736587620439903</v>
       </c>
       <c r="D43">
-        <v>0.04053440183593032</v>
+        <v>0.04641725858824794</v>
       </c>
       <c r="E43">
-        <v>0.04119417835049877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03866548595628444</v>
+      </c>
+      <c r="F43">
+        <v>-0.02628657505071553</v>
+      </c>
+      <c r="G43">
+        <v>-0.0066706650747083</v>
+      </c>
+      <c r="H43">
+        <v>-0.01548695207890367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01822484179050999</v>
+        <v>0.009584397162852983</v>
       </c>
       <c r="C44">
-        <v>-0.03053910409455088</v>
+        <v>0.05199318743216181</v>
       </c>
       <c r="D44">
-        <v>0.08679133162730167</v>
+        <v>0.08206436963447308</v>
       </c>
       <c r="E44">
-        <v>0.09639855010453605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0876851831961155</v>
+      </c>
+      <c r="F44">
+        <v>-0.03752143807905713</v>
+      </c>
+      <c r="G44">
+        <v>-0.04211034155638664</v>
+      </c>
+      <c r="H44">
+        <v>-0.02015355044253827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.001717142050857329</v>
+        <v>-0.0008180889345643829</v>
       </c>
       <c r="C46">
-        <v>-0.03249589498426528</v>
+        <v>0.04313541151363591</v>
       </c>
       <c r="D46">
-        <v>0.06951021549888037</v>
+        <v>0.04807861363697873</v>
       </c>
       <c r="E46">
-        <v>0.04962971162847971</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.09033408461032481</v>
+      </c>
+      <c r="F46">
+        <v>-0.03512498598449324</v>
+      </c>
+      <c r="G46">
+        <v>-0.02430128783025722</v>
+      </c>
+      <c r="H46">
+        <v>0.003785709094213752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06744588953566386</v>
+        <v>0.03069405197515418</v>
       </c>
       <c r="C47">
-        <v>-0.1136307490590639</v>
+        <v>0.1246342531032317</v>
       </c>
       <c r="D47">
-        <v>0.05486222050483561</v>
+        <v>0.02049238267451651</v>
       </c>
       <c r="E47">
-        <v>0.03420437800164108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00572738786687751</v>
+      </c>
+      <c r="F47">
+        <v>6.283274177326136e-05</v>
+      </c>
+      <c r="G47">
+        <v>0.01266738302128485</v>
+      </c>
+      <c r="H47">
+        <v>-0.01447069020364498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.004088781903227674</v>
+        <v>0.01220694190047254</v>
       </c>
       <c r="C48">
-        <v>-0.0175860335229221</v>
+        <v>0.03386394932187808</v>
       </c>
       <c r="D48">
-        <v>0.05698678534791151</v>
+        <v>0.05672213773316701</v>
       </c>
       <c r="E48">
-        <v>0.07620789670681098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.06776606338305953</v>
+      </c>
+      <c r="F48">
+        <v>-0.06060174792985745</v>
+      </c>
+      <c r="G48">
+        <v>-0.02392672585825594</v>
+      </c>
+      <c r="H48">
+        <v>-0.007333127525245447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002447434020175188</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001578765393531572</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.002100217172217473</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.001142819096160323</v>
+      </c>
+      <c r="F49">
+        <v>0.002023586527783075</v>
+      </c>
+      <c r="G49">
+        <v>0.006464435277642886</v>
+      </c>
+      <c r="H49">
+        <v>0.004527553662531061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03079642617736476</v>
+        <v>0.0142328844562806</v>
       </c>
       <c r="C50">
-        <v>-0.05874654855864463</v>
+        <v>0.07646842617779517</v>
       </c>
       <c r="D50">
-        <v>0.05825024279488331</v>
+        <v>0.03795440993358758</v>
       </c>
       <c r="E50">
-        <v>0.02714387804595101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03801970562455306</v>
+      </c>
+      <c r="F50">
+        <v>-0.01015755694039341</v>
+      </c>
+      <c r="G50">
+        <v>-0.01975820029296137</v>
+      </c>
+      <c r="H50">
+        <v>-0.01580186991053747</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.005706619374165888</v>
+        <v>-0.003934018804305102</v>
       </c>
       <c r="C51">
-        <v>-0.005562181314007607</v>
+        <v>0.01792571061397856</v>
       </c>
       <c r="D51">
-        <v>0.05256437575058474</v>
+        <v>0.03141625250842339</v>
       </c>
       <c r="E51">
-        <v>0.04082029076770685</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06094922904965366</v>
+      </c>
+      <c r="F51">
+        <v>-0.03704643811913047</v>
+      </c>
+      <c r="G51">
+        <v>-0.04454474068622347</v>
+      </c>
+      <c r="H51">
+        <v>0.005831145750271088</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1031199602233267</v>
+        <v>0.05910694066112578</v>
       </c>
       <c r="C53">
-        <v>-0.1364124263966146</v>
+        <v>0.1635382986600987</v>
       </c>
       <c r="D53">
-        <v>-0.002833660112066678</v>
+        <v>-0.01825473147223058</v>
       </c>
       <c r="E53">
-        <v>0.03726354415020879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02587486135777525</v>
+      </c>
+      <c r="F53">
+        <v>-0.04008851314994546</v>
+      </c>
+      <c r="G53">
+        <v>-0.005986460970993034</v>
+      </c>
+      <c r="H53">
+        <v>-0.006858550163400728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.004225022447712008</v>
+        <v>0.01020186698518511</v>
       </c>
       <c r="C54">
-        <v>-0.02459417968318981</v>
+        <v>0.04114887626873186</v>
       </c>
       <c r="D54">
-        <v>0.08423597783589697</v>
+        <v>0.06703252800546028</v>
       </c>
       <c r="E54">
-        <v>0.0471243192184269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05778419607148096</v>
+      </c>
+      <c r="F54">
+        <v>-0.01248299286931331</v>
+      </c>
+      <c r="G54">
+        <v>-0.02970763345700754</v>
+      </c>
+      <c r="H54">
+        <v>-0.02124031635085421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08531845280446458</v>
+        <v>0.04175817079102831</v>
       </c>
       <c r="C55">
-        <v>-0.1123348828711771</v>
+        <v>0.1285434988198295</v>
       </c>
       <c r="D55">
-        <v>0.001614140922202055</v>
+        <v>-0.04611048488622842</v>
       </c>
       <c r="E55">
-        <v>-0.00883310121186779</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0101543276191013</v>
+      </c>
+      <c r="F55">
+        <v>-0.00180490032023798</v>
+      </c>
+      <c r="G55">
+        <v>-0.01722292520660645</v>
+      </c>
+      <c r="H55">
+        <v>0.003327995278004853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.125072693999068</v>
+        <v>0.05923206236636064</v>
       </c>
       <c r="C56">
-        <v>-0.1629707638481409</v>
+        <v>0.1937445586828484</v>
       </c>
       <c r="D56">
-        <v>0.02068958412207462</v>
+        <v>-0.04392763829113271</v>
       </c>
       <c r="E56">
-        <v>-0.0149879828380589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03762791909633342</v>
+      </c>
+      <c r="F56">
+        <v>-0.0005688698850786441</v>
+      </c>
+      <c r="G56">
+        <v>-0.06763719633336449</v>
+      </c>
+      <c r="H56">
+        <v>-0.002240734076085975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.005351530466392866</v>
+        <v>0.009724048806286467</v>
       </c>
       <c r="C58">
-        <v>-0.02260270405622525</v>
+        <v>0.06903809446284789</v>
       </c>
       <c r="D58">
-        <v>0.1986920977896934</v>
+        <v>0.2421140554826688</v>
       </c>
       <c r="E58">
-        <v>0.2147237116003839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.1276364234591879</v>
+      </c>
+      <c r="F58">
+        <v>-0.1489915074431367</v>
+      </c>
+      <c r="G58">
+        <v>-0.16690329173181</v>
+      </c>
+      <c r="H58">
+        <v>-0.07051186165852813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2040202313724379</v>
+        <v>0.260356360575736</v>
       </c>
       <c r="C59">
-        <v>0.1224625603340679</v>
+        <v>-0.05446073029525163</v>
       </c>
       <c r="D59">
-        <v>0.04706205307535242</v>
+        <v>0.04110568429329387</v>
       </c>
       <c r="E59">
-        <v>0.0441816813459166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.007668758791578227</v>
+      </c>
+      <c r="F59">
+        <v>-0.02068623968975408</v>
+      </c>
+      <c r="G59">
+        <v>-0.03262565424214645</v>
+      </c>
+      <c r="H59">
+        <v>0.03678191273979974</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1754546763980045</v>
+        <v>0.1514826321114953</v>
       </c>
       <c r="C60">
-        <v>-0.109345897539883</v>
+        <v>0.1675571181716334</v>
       </c>
       <c r="D60">
-        <v>0.1286675220896992</v>
+        <v>0.02940709929302566</v>
       </c>
       <c r="E60">
-        <v>-0.05852154688237312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1065769897267396</v>
+      </c>
+      <c r="F60">
+        <v>0.205088632852727</v>
+      </c>
+      <c r="G60">
+        <v>0.2530220870472955</v>
+      </c>
+      <c r="H60">
+        <v>0.1206335014295011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02002528897013411</v>
+        <v>0.01276534716447853</v>
       </c>
       <c r="C61">
-        <v>-0.06016198337626729</v>
+        <v>0.08249996034170488</v>
       </c>
       <c r="D61">
-        <v>0.07236001010057046</v>
+        <v>0.04404871601491346</v>
       </c>
       <c r="E61">
-        <v>0.01794169522070679</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.07061320448576353</v>
+      </c>
+      <c r="F61">
+        <v>0.01085230196415771</v>
+      </c>
+      <c r="G61">
+        <v>-0.002335888847450228</v>
+      </c>
+      <c r="H61">
+        <v>0.000233826901408783</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009879033835268876</v>
+        <v>0.01593509862956374</v>
       </c>
       <c r="C63">
-        <v>-0.02732660742367171</v>
+        <v>0.0463659293598178</v>
       </c>
       <c r="D63">
-        <v>0.07313271215342354</v>
+        <v>0.0382679838894702</v>
       </c>
       <c r="E63">
-        <v>0.04653320657610122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.08888284252620431</v>
+      </c>
+      <c r="F63">
+        <v>-0.02163144291983655</v>
+      </c>
+      <c r="G63">
+        <v>-0.007956216922808589</v>
+      </c>
+      <c r="H63">
+        <v>-0.00274468752454768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04636275797192842</v>
+        <v>0.01552962918356183</v>
       </c>
       <c r="C64">
-        <v>-0.09553473125714013</v>
+        <v>0.1051881724302683</v>
       </c>
       <c r="D64">
-        <v>0.01859418469093574</v>
+        <v>0.006545378174228757</v>
       </c>
       <c r="E64">
-        <v>0.03374885666864378</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03534434852425589</v>
+      </c>
+      <c r="F64">
+        <v>-0.01838165792792756</v>
+      </c>
+      <c r="G64">
+        <v>0.02716936260979831</v>
+      </c>
+      <c r="H64">
+        <v>-0.04254073137017444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0255618170966705</v>
+        <v>0.02589568257362941</v>
       </c>
       <c r="C65">
-        <v>-0.0190157587254485</v>
+        <v>0.04573140492417694</v>
       </c>
       <c r="D65">
-        <v>0.08928377207768233</v>
+        <v>0.08695199960173756</v>
       </c>
       <c r="E65">
-        <v>0.04799795451297093</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.07894869988560124</v>
+      </c>
+      <c r="F65">
+        <v>0.009726697463504503</v>
+      </c>
+      <c r="G65">
+        <v>0.04806882170805331</v>
+      </c>
+      <c r="H65">
+        <v>-0.02417938105930802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01994975305973688</v>
+        <v>0.007449798418695776</v>
       </c>
       <c r="C66">
-        <v>-0.07550934849320021</v>
+        <v>0.1108103633864536</v>
       </c>
       <c r="D66">
-        <v>0.1223208931775341</v>
+        <v>0.09438484696798866</v>
       </c>
       <c r="E66">
-        <v>0.04399815565242558</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.09633473148422927</v>
+      </c>
+      <c r="F66">
+        <v>0.006016999513688418</v>
+      </c>
+      <c r="G66">
+        <v>-0.02697620227638607</v>
+      </c>
+      <c r="H66">
+        <v>-0.008108143632048351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0152068578673797</v>
+        <v>0.01699739436016766</v>
       </c>
       <c r="C67">
-        <v>-0.01998842477592973</v>
+        <v>0.03743848585544868</v>
       </c>
       <c r="D67">
-        <v>0.05005565968985817</v>
+        <v>0.04079047741646451</v>
       </c>
       <c r="E67">
-        <v>0.005661384893692565</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.04560547019006584</v>
+      </c>
+      <c r="F67">
+        <v>0.01926018966573885</v>
+      </c>
+      <c r="G67">
+        <v>-0.009639878023870455</v>
+      </c>
+      <c r="H67">
+        <v>-0.03033352326891366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2131157368530321</v>
+        <v>0.2786383844530534</v>
       </c>
       <c r="C68">
-        <v>0.1333638109245331</v>
+        <v>-0.06621955140583309</v>
       </c>
       <c r="D68">
-        <v>0.02209299414523463</v>
+        <v>0.03304237651671812</v>
       </c>
       <c r="E68">
-        <v>0.02794937593319012</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01180997567108705</v>
+      </c>
+      <c r="F68">
+        <v>-0.02234871247892311</v>
+      </c>
+      <c r="G68">
+        <v>-0.04557814801080892</v>
+      </c>
+      <c r="H68">
+        <v>0.007292169607755062</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04931353451190728</v>
+        <v>0.01461376139594969</v>
       </c>
       <c r="C69">
-        <v>-0.1163224214802905</v>
+        <v>0.1107370698163258</v>
       </c>
       <c r="D69">
-        <v>0.06791850639197761</v>
+        <v>0.01555437324047629</v>
       </c>
       <c r="E69">
-        <v>0.0400757623645148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01462262797226155</v>
+      </c>
+      <c r="F69">
+        <v>0.009601989563141924</v>
+      </c>
+      <c r="G69">
+        <v>0.007148055100322631</v>
+      </c>
+      <c r="H69">
+        <v>0.00302875131745764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2328185734635456</v>
+        <v>0.2719402380719201</v>
       </c>
       <c r="C71">
-        <v>0.1560870354620713</v>
+        <v>-0.08137246204378534</v>
       </c>
       <c r="D71">
-        <v>0.01682080695824588</v>
+        <v>0.01087718227420521</v>
       </c>
       <c r="E71">
-        <v>0.005878136954142565</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.005408177040911876</v>
+      </c>
+      <c r="F71">
+        <v>-0.01146317234629975</v>
+      </c>
+      <c r="G71">
+        <v>-0.04134967768005417</v>
+      </c>
+      <c r="H71">
+        <v>-0.01631730957224482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09740283930587883</v>
+        <v>0.06296632056343052</v>
       </c>
       <c r="C72">
-        <v>-0.07906932851530085</v>
+        <v>0.1247075345698363</v>
       </c>
       <c r="D72">
-        <v>0.09760332012121914</v>
+        <v>0.03876515543226159</v>
       </c>
       <c r="E72">
-        <v>0.03781256913144294</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08399386427535334</v>
+      </c>
+      <c r="F72">
+        <v>0.01895280426388308</v>
+      </c>
+      <c r="G72">
+        <v>0.03298227428101727</v>
+      </c>
+      <c r="H72">
+        <v>0.002153610782761225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1733694998912644</v>
+        <v>0.1572868103537416</v>
       </c>
       <c r="C73">
-        <v>-0.08293472217027784</v>
+        <v>0.1672484600383564</v>
       </c>
       <c r="D73">
-        <v>0.1980938544907075</v>
+        <v>0.03924608741916077</v>
       </c>
       <c r="E73">
-        <v>-0.09311610325095684</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2538369444746856</v>
+      </c>
+      <c r="F73">
+        <v>0.3184794008288843</v>
+      </c>
+      <c r="G73">
+        <v>0.4272341207679872</v>
+      </c>
+      <c r="H73">
+        <v>0.1181390850912974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.09852045072877251</v>
+        <v>0.05192421451738857</v>
       </c>
       <c r="C74">
-        <v>-0.121415899514936</v>
+        <v>0.141151050468771</v>
       </c>
       <c r="D74">
-        <v>-0.04823758732150257</v>
+        <v>-0.04507732510268001</v>
       </c>
       <c r="E74">
-        <v>0.009653098010712355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03587804553372859</v>
+      </c>
+      <c r="F74">
+        <v>-0.03273586697882126</v>
+      </c>
+      <c r="G74">
+        <v>0.005723203397730062</v>
+      </c>
+      <c r="H74">
+        <v>-0.0003821386624503346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2109639760329426</v>
+        <v>0.09749094657014568</v>
       </c>
       <c r="C75">
-        <v>-0.2164759594909883</v>
+        <v>0.2610980427313068</v>
       </c>
       <c r="D75">
-        <v>-0.03797430157562566</v>
+        <v>-0.1055101596690687</v>
       </c>
       <c r="E75">
-        <v>-0.09881733145220992</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1294161997155345</v>
+      </c>
+      <c r="F75">
+        <v>0.05251065970366268</v>
+      </c>
+      <c r="G75">
+        <v>-0.1111387168691436</v>
+      </c>
+      <c r="H75">
+        <v>-0.08120318215023183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1279734470099811</v>
+        <v>0.06030433660730558</v>
       </c>
       <c r="C76">
-        <v>-0.1465772186498846</v>
+        <v>0.1779488895452214</v>
       </c>
       <c r="D76">
-        <v>0.01179269811694511</v>
+        <v>-0.04388419647288572</v>
       </c>
       <c r="E76">
-        <v>-0.0152443405625568</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04313367513592902</v>
+      </c>
+      <c r="F76">
+        <v>0.006409735789914685</v>
+      </c>
+      <c r="G76">
+        <v>-0.04750478669785372</v>
+      </c>
+      <c r="H76">
+        <v>-0.01390855088574197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.004146781056361779</v>
+        <v>-0.006910948239877382</v>
       </c>
       <c r="C77">
-        <v>-0.08244642592348228</v>
+        <v>0.1236910038933415</v>
       </c>
       <c r="D77">
-        <v>0.2261495028233171</v>
+        <v>0.6290236161632828</v>
       </c>
       <c r="E77">
-        <v>0.2086073458662036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.6927634208020942</v>
+      </c>
+      <c r="F77">
+        <v>0.1278608331120413</v>
+      </c>
+      <c r="G77">
+        <v>0.1770896903912455</v>
+      </c>
+      <c r="H77">
+        <v>-0.006671741480425599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03176615062819019</v>
+        <v>0.02187209075261867</v>
       </c>
       <c r="C78">
-        <v>-0.07691193994673547</v>
+        <v>0.09585048597578916</v>
       </c>
       <c r="D78">
-        <v>0.1428114508756886</v>
+        <v>0.0692254257507757</v>
       </c>
       <c r="E78">
-        <v>0.1146637837479815</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.09896923932257001</v>
+      </c>
+      <c r="F78">
+        <v>-0.04473684905384996</v>
+      </c>
+      <c r="G78">
+        <v>-0.09947366836257447</v>
+      </c>
+      <c r="H78">
+        <v>0.04719894201730978</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1084925705451543</v>
+        <v>0.05119248399232529</v>
       </c>
       <c r="C79">
-        <v>-0.2130412893876166</v>
+        <v>0.2169677458741198</v>
       </c>
       <c r="D79">
-        <v>-0.6018203263155026</v>
+        <v>-0.1385641043871939</v>
       </c>
       <c r="E79">
-        <v>0.6718057437256674</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1062019938553201</v>
+      </c>
+      <c r="F79">
+        <v>-0.7752552048507565</v>
+      </c>
+      <c r="G79">
+        <v>0.4497097082596214</v>
+      </c>
+      <c r="H79">
+        <v>-0.003761603736596474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.006586769981448769</v>
+        <v>0.008776497102016027</v>
       </c>
       <c r="C80">
-        <v>-0.04474120048860954</v>
+        <v>0.04563947560078961</v>
       </c>
       <c r="D80">
-        <v>0.03198524148100942</v>
+        <v>0.01046067103910827</v>
       </c>
       <c r="E80">
-        <v>-0.005121021543803062</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06453396688934404</v>
+      </c>
+      <c r="F80">
+        <v>0.01369289770351955</v>
+      </c>
+      <c r="G80">
+        <v>0.006356659078772755</v>
+      </c>
+      <c r="H80">
+        <v>0.07898105871168626</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.09851570801697544</v>
+        <v>0.03326794976425278</v>
       </c>
       <c r="C81">
-        <v>-0.1414637792290412</v>
+        <v>0.1588126196408527</v>
       </c>
       <c r="D81">
-        <v>-0.07498251416627069</v>
+        <v>-0.0679678662996764</v>
       </c>
       <c r="E81">
-        <v>-0.01833262609062537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06467026490486426</v>
+      </c>
+      <c r="F81">
+        <v>-0.05177268244230775</v>
+      </c>
+      <c r="G81">
+        <v>-0.06705939017586038</v>
+      </c>
+      <c r="H81">
+        <v>0.007539526910561627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2036175095017247</v>
+        <v>0.07686301759246295</v>
       </c>
       <c r="C82">
-        <v>-0.3092759481502733</v>
+        <v>0.294546258140817</v>
       </c>
       <c r="D82">
-        <v>-0.06775383562668937</v>
+        <v>-0.1951502633263777</v>
       </c>
       <c r="E82">
-        <v>-0.2348057944629951</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1331272363946116</v>
+      </c>
+      <c r="F82">
+        <v>0.1081789587899656</v>
+      </c>
+      <c r="G82">
+        <v>-0.1578531294787421</v>
+      </c>
+      <c r="H82">
+        <v>0.001180024636353369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01357852619308053</v>
+        <v>-0.007066850934743613</v>
       </c>
       <c r="C83">
-        <v>-0.0486245882438985</v>
+        <v>0.01670966351171879</v>
       </c>
       <c r="D83">
-        <v>-0.001826822193753269</v>
+        <v>0.02181186143724737</v>
       </c>
       <c r="E83">
-        <v>0.0390990258883651</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09231743595359186</v>
+      </c>
+      <c r="F83">
+        <v>-0.09839690105230907</v>
+      </c>
+      <c r="G83">
+        <v>-0.2001694050937518</v>
+      </c>
+      <c r="H83">
+        <v>0.9137861894176047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001159815463124376</v>
+        <v>-0.00468172791474126</v>
       </c>
       <c r="C84">
-        <v>-0.004316017067827397</v>
+        <v>0.01584558171441272</v>
       </c>
       <c r="D84">
-        <v>0.009891040954636459</v>
+        <v>0.0378334765716489</v>
       </c>
       <c r="E84">
-        <v>0.002000462189844891</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.03251398882418197</v>
+      </c>
+      <c r="F84">
+        <v>-0.03492139214636521</v>
+      </c>
+      <c r="G84">
+        <v>-0.06324226407119328</v>
+      </c>
+      <c r="H84">
+        <v>-0.05596489286302659</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1273103573920562</v>
+        <v>0.05429757081111342</v>
       </c>
       <c r="C85">
-        <v>-0.1544019393100177</v>
+        <v>0.1771782497122953</v>
       </c>
       <c r="D85">
-        <v>-0.08948034734946408</v>
+        <v>-0.1152995911493016</v>
       </c>
       <c r="E85">
-        <v>-0.01385807066784136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03494830398354537</v>
+      </c>
+      <c r="F85">
+        <v>-0.05596954095076655</v>
+      </c>
+      <c r="G85">
+        <v>-0.01575603745414378</v>
+      </c>
+      <c r="H85">
+        <v>-0.02101118229027187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02251732120629672</v>
+        <v>0.01606231452047817</v>
       </c>
       <c r="C86">
-        <v>-0.01172201951970706</v>
+        <v>0.04162656342694376</v>
       </c>
       <c r="D86">
-        <v>0.1093117306768892</v>
+        <v>0.1071889761810668</v>
       </c>
       <c r="E86">
-        <v>0.07194212343944047</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02578944227294414</v>
+      </c>
+      <c r="F86">
+        <v>-0.02588248437787763</v>
+      </c>
+      <c r="G86">
+        <v>0.002165383660689958</v>
+      </c>
+      <c r="H86">
+        <v>-0.016431524942127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02121024794572952</v>
+        <v>0.01017737305756912</v>
       </c>
       <c r="C87">
-        <v>-0.0378223644252642</v>
+        <v>0.06763975682184731</v>
       </c>
       <c r="D87">
-        <v>0.1214236587431725</v>
+        <v>0.1139523665829324</v>
       </c>
       <c r="E87">
-        <v>0.1083850773141383</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07397172980446469</v>
+      </c>
+      <c r="F87">
+        <v>-0.04802373777205102</v>
+      </c>
+      <c r="G87">
+        <v>-0.0836628186263863</v>
+      </c>
+      <c r="H87">
+        <v>-7.228941045496621e-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04589676467332124</v>
+        <v>0.03336936100605101</v>
       </c>
       <c r="C88">
-        <v>-0.04901586250839882</v>
+        <v>0.07226514478861228</v>
       </c>
       <c r="D88">
-        <v>0.007881311336628862</v>
+        <v>0.01453142225084975</v>
       </c>
       <c r="E88">
-        <v>0.02778924731434716</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03816024232091291</v>
+      </c>
+      <c r="F88">
+        <v>-0.0214643802064738</v>
+      </c>
+      <c r="G88">
+        <v>0.01079041845178112</v>
+      </c>
+      <c r="H88">
+        <v>-0.008918817934265778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3470837888001304</v>
+        <v>0.3993677781138989</v>
       </c>
       <c r="C89">
-        <v>0.2942237488542111</v>
+        <v>-0.1624290215251979</v>
       </c>
       <c r="D89">
-        <v>0.01578704002543569</v>
+        <v>0.05035265814642678</v>
       </c>
       <c r="E89">
-        <v>0.1236518329354564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02068421288893921</v>
+      </c>
+      <c r="F89">
+        <v>-0.08383501179406691</v>
+      </c>
+      <c r="G89">
+        <v>-0.09230031960157646</v>
+      </c>
+      <c r="H89">
+        <v>0.0684785842257484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2779982254710799</v>
+        <v>0.3231686648183663</v>
       </c>
       <c r="C90">
-        <v>0.2120518054007204</v>
+        <v>-0.1024290731527363</v>
       </c>
       <c r="D90">
-        <v>0.06011708146687819</v>
+        <v>0.03267688827574339</v>
       </c>
       <c r="E90">
-        <v>0.01958898499870547</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.005886601630014914</v>
+      </c>
+      <c r="F90">
+        <v>0.007834977140371562</v>
+      </c>
+      <c r="G90">
+        <v>-0.05261373080948721</v>
+      </c>
+      <c r="H90">
+        <v>0.007690134485998933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1337451238813575</v>
+        <v>0.06366963260229894</v>
       </c>
       <c r="C91">
-        <v>-0.1989301429787289</v>
+        <v>0.2023337260135134</v>
       </c>
       <c r="D91">
-        <v>-0.09250216408994914</v>
+        <v>-0.08624981987533267</v>
       </c>
       <c r="E91">
-        <v>0.02477646091565177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09523508859030413</v>
+      </c>
+      <c r="F91">
+        <v>-0.0589748555854316</v>
+      </c>
+      <c r="G91">
+        <v>-0.007597280511000932</v>
+      </c>
+      <c r="H91">
+        <v>0.01900169416406948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2648010440575981</v>
+        <v>0.3380983869521054</v>
       </c>
       <c r="C92">
-        <v>0.2403176142154204</v>
+        <v>-0.142674493885935</v>
       </c>
       <c r="D92">
-        <v>-0.03167450613931501</v>
+        <v>0.04024862793004064</v>
       </c>
       <c r="E92">
-        <v>0.02962420120438205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.054235337809061</v>
+      </c>
+      <c r="F92">
+        <v>-0.04420769102615196</v>
+      </c>
+      <c r="G92">
+        <v>-0.01590332725160278</v>
+      </c>
+      <c r="H92">
+        <v>-0.1247799393907699</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2959848419239801</v>
+        <v>0.3298183176203436</v>
       </c>
       <c r="C93">
-        <v>0.2191549861195989</v>
+        <v>-0.1168983738296424</v>
       </c>
       <c r="D93">
-        <v>-0.02139348709384484</v>
+        <v>-0.02294224875220768</v>
       </c>
       <c r="E93">
-        <v>-0.01510705701657302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0004506268770856737</v>
+      </c>
+      <c r="F93">
+        <v>-0.005854302865891667</v>
+      </c>
+      <c r="G93">
+        <v>0.02795707795454977</v>
+      </c>
+      <c r="H93">
+        <v>-0.02782283153345084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2486238772934209</v>
+        <v>0.1182788235304351</v>
       </c>
       <c r="C94">
-        <v>-0.2897932855229232</v>
+        <v>0.3210092275524573</v>
       </c>
       <c r="D94">
-        <v>-0.1612192062210085</v>
+        <v>-0.3191511733066641</v>
       </c>
       <c r="E94">
-        <v>-0.3258109083024303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.2007831251367068</v>
+      </c>
+      <c r="F94">
+        <v>0.1492200033935516</v>
+      </c>
+      <c r="G94">
+        <v>-0.301620040209423</v>
+      </c>
+      <c r="H94">
+        <v>-0.08425536276112346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.002709790378812839</v>
+        <v>0.01331240013277031</v>
       </c>
       <c r="C95">
-        <v>-0.05384911672267895</v>
+        <v>0.07741056987163258</v>
       </c>
       <c r="D95">
-        <v>0.1118076077576462</v>
+        <v>0.1472573947873385</v>
       </c>
       <c r="E95">
-        <v>0.08162623669315648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06011987803662864</v>
+      </c>
+      <c r="F95">
+        <v>0.02136898997831067</v>
+      </c>
+      <c r="G95">
+        <v>0.03143745234859184</v>
+      </c>
+      <c r="H95">
+        <v>-0.06333992420048389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002509295858654113</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0007306639846622222</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0001690521771827738</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003361134486591966</v>
+      </c>
+      <c r="F97">
+        <v>-0.0001761508236731592</v>
+      </c>
+      <c r="G97">
+        <v>-0.0008486754434358851</v>
+      </c>
+      <c r="H97">
+        <v>-0.005390168930255411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1454536104324839</v>
+        <v>0.1324007606970474</v>
       </c>
       <c r="C98">
-        <v>-0.1026158186006803</v>
+        <v>0.1661255622683871</v>
       </c>
       <c r="D98">
-        <v>0.130580624238782</v>
+        <v>0.002556766457462536</v>
       </c>
       <c r="E98">
-        <v>-0.1087433777849088</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1565683797621146</v>
+      </c>
+      <c r="F98">
+        <v>0.2647369425151317</v>
+      </c>
+      <c r="G98">
+        <v>0.310184986016673</v>
+      </c>
+      <c r="H98">
+        <v>0.1036979374643901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004220541731646597</v>
+        <v>0.0009510364352965605</v>
       </c>
       <c r="C101">
-        <v>-0.02176008102004972</v>
+        <v>0.03880142486651933</v>
       </c>
       <c r="D101">
-        <v>0.06546739606579849</v>
+        <v>0.07564945034482179</v>
       </c>
       <c r="E101">
-        <v>0.05690102483807918</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1161051833641391</v>
+      </c>
+      <c r="F101">
+        <v>-0.03904974855795357</v>
+      </c>
+      <c r="G101">
+        <v>-0.009885167518898367</v>
+      </c>
+      <c r="H101">
+        <v>0.04580797392171112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.08303868290507918</v>
+        <v>0.01816768159866974</v>
       </c>
       <c r="C102">
-        <v>-0.1656490741304128</v>
+        <v>0.1362403870951404</v>
       </c>
       <c r="D102">
-        <v>0.00472224752053078</v>
+        <v>-0.07954984094986808</v>
       </c>
       <c r="E102">
-        <v>-0.09856606888203687</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.06911919077150457</v>
+      </c>
+      <c r="F102">
+        <v>0.07914828718295652</v>
+      </c>
+      <c r="G102">
+        <v>-0.01882651320714531</v>
+      </c>
+      <c r="H102">
+        <v>0.02634981954521903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
